--- a/DesignerConfigs/Datas/test/define_from_excel_one.xlsx
+++ b/DesignerConfigs/Datas/test/define_from_excel_one.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F6B1282-FCCF-44FB-95F0-1061DF8228C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F33394E-1D05-460C-B55A-1F5B8382C4CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tb_role_csv" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,6 @@
     <t>##</t>
   </si>
   <si>
-    <t>row:false</t>
-  </si>
-  <si>
     <t>unlock_equip</t>
   </si>
   <si>
@@ -112,10 +109,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>title_rows:4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>装备解锁等级_描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -125,6 +118,27 @@
   </si>
   <si>
     <t>default_item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rientation=portrait</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title_rows=4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -463,13 +477,13 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="25.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="31.375" style="1" customWidth="1"/>
@@ -480,25 +494,25 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+      <c r="B1" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1">
         <v>10</v>
@@ -506,13 +520,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="E4" s="1">
         <v>20</v>
@@ -520,30 +534,30 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/DesignerConfigs/Datas/test/define_from_excel_one.xlsx
+++ b/DesignerConfigs/Datas/test/define_from_excel_one.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F33394E-1D05-460C-B55A-1F5B8382C4CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C829BF60-3E58-48BC-91A4-83BD0BFAC989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="570" yWindow="255" windowWidth="27645" windowHeight="14835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tb_role_csv" sheetId="1" r:id="rId1"/>
@@ -121,24 +121,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>o</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>rientation=portrait</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>title_rows=4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orientation=c</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -477,7 +464,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -495,10 +482,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">

--- a/DesignerConfigs/Datas/test/define_from_excel_one.xlsx
+++ b/DesignerConfigs/Datas/test/define_from_excel_one.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C829BF60-3E58-48BC-91A4-83BD0BFAC989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{607C69BC-FA21-433A-87A4-8CF7EA074300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="570" yWindow="255" windowWidth="27645" windowHeight="14835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tb_role_csv" sheetId="1" r:id="rId1"/>
@@ -125,7 +125,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>orientation=c</t>
+    <t>orientation=column</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -464,7 +464,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/DesignerConfigs/Datas/test/define_from_excel_one.xlsx
+++ b/DesignerConfigs/Datas/test/define_from_excel_one.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{607C69BC-FA21-433A-87A4-8CF7EA074300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B5C195-9998-4383-9DA2-EC7E042F9A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8550" yWindow="1890" windowWidth="25335" windowHeight="12915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tb_role_csv" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
-  <si>
-    <t>##</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>unlock_equip</t>
   </si>
@@ -88,10 +85,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>默认头像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>A</t>
     </r>
@@ -109,10 +102,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>装备解锁等级_描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -121,11 +110,28 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>title_rows=4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>orientation=column</t>
+    <r>
+      <t>##</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>column</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>##</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>##type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -461,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -472,79 +478,71 @@
     <col min="1" max="1" width="13.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="31.375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.125" style="1"/>
+    <col min="4" max="4" width="31.375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>13</v>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1">
-        <v>10</v>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/DesignerConfigs/Datas/test/define_from_excel_one.xlsx
+++ b/DesignerConfigs/Datas/test/define_from_excel_one.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\test\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B5C195-9998-4383-9DA2-EC7E042F9A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8550" yWindow="1890" windowWidth="25335" windowHeight="12915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="tb_role_csv" sheetId="1" r:id="rId1"/>
@@ -22,156 +16,486 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>##</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>column</t>
+    </r>
+  </si>
+  <si>
+    <t>##type</t>
+  </si>
+  <si>
+    <t>##</t>
+  </si>
+  <si>
     <t>unlock_equip</t>
   </si>
   <si>
-    <t>装备解锁等级</t>
-  </si>
-  <si>
-    <t>unlock_hero</t>
-  </si>
-  <si>
-    <t>英雄解锁等级</t>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>i</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>nt</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备解锁等级</t>
+  </si>
+  <si>
+    <t>unlock_hero</t>
+  </si>
+  <si>
+    <t>英雄解锁等级</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>d</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>efault_avatar</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
+  </si>
+  <si>
+    <t>string#path=unity</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>tring&amp;path=unity</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>A</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>ssets/Icon/DefaultAvatar.png</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default_item</t>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>default_item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>##</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>column</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>##</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>##type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -179,31 +503,317 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -461,93 +1071,93 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.12380952380952" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="13.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.375" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.125" style="1"/>
+    <col min="1" max="1" width="13.752380952381" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5047619047619" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.8761904761905" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.3714285714286" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.12380952380952" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/DesignerConfigs/Datas/test/define_from_excel_one.xlsx
+++ b/DesignerConfigs/Datas/test/define_from_excel_one.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12450"/>
+    <workbookView windowWidth="20130" windowHeight="8865"/>
   </bookViews>
   <sheets>
     <sheet name="tb_role_csv" sheetId="1" r:id="rId1"/>
@@ -16,26 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>##</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>column</t>
-    </r>
+    <t>##var#column</t>
   </si>
   <si>
     <t>##type</t>
@@ -136,12 +117,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,17 +134,50 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -172,7 +186,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,51 +204,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -239,47 +215,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,9 +231,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,175 +284,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,11 +478,52 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,59 +545,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,10 +566,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -622,127 +596,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -754,10 +728,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1080,7 +1054,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.12380952380952" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="3"/>

--- a/DesignerConfigs/Datas/test/define_from_excel_one.xlsx
+++ b/DesignerConfigs/Datas/test/define_from_excel_one.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20130" windowHeight="8865"/>
+    <workbookView windowWidth="21810" windowHeight="10095"/>
   </bookViews>
   <sheets>
     <sheet name="tb_role_csv" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>##var#column</t>
   </si>
   <si>
     <t>##type</t>
+  </si>
+  <si>
+    <t>##var</t>
   </si>
   <si>
     <t>##</t>
@@ -111,6 +114,30 @@
   <si>
     <t>string</t>
   </si>
+  <si>
+    <t>e2</t>
+  </si>
+  <si>
+    <t>DemoE2</t>
+  </si>
+  <si>
+    <t>y1</t>
+  </si>
+  <si>
+    <t>y2</t>
+  </si>
+  <si>
+    <t>icons</t>
+  </si>
+  <si>
+    <t>list,string</t>
+  </si>
+  <si>
+    <t>icon1</t>
+  </si>
+  <si>
+    <t>icon2</t>
+  </si>
 </sst>
 </file>
 
@@ -118,9 +145,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -132,19 +159,19 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -153,9 +180,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,31 +235,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -215,9 +256,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,45 +294,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,187 +311,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,6 +502,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -517,41 +568,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -570,160 +586,171 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -732,6 +759,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1051,85 +1081,141 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.12380952380952" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.12380952380952" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="13.752380952381" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5047619047619" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.8761904761905" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.3714285714286" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.12380952380952" style="1"/>
+    <col min="2" max="3" width="19.5047619047619" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.8761904761905" style="1" customWidth="1"/>
+    <col min="5" max="5" width="31.3714285714286" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.12380952380952" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1">
+      <c r="C2" s="2"/>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
-        <v>10</v>
-      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="4"/>
+      <c r="E9" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B6:B7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
